--- a/05-Power-Budget/WeightSubsystemPowerBudget.xlsx
+++ b/05-Power-Budget/WeightSubsystemPowerBudget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Damian\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D571A9D7-E4D7-4C30-B782-620A361706C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2E7065-C908-48F5-A8D6-8295346E0330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15466" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="57">
   <si>
     <t>Team Number:</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t xml:space="preserve"> +9V regulator</t>
+  </si>
+  <si>
+    <t>INA333AIDGKR</t>
+  </si>
+  <si>
+    <t>1.8V to 5V</t>
   </si>
 </sst>
 </file>
@@ -563,34 +569,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -925,7 +931,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -941,16 +947,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
@@ -1013,16 +1019,16 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="47"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7" t="s">
@@ -1176,16 +1182,16 @@
       <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="47"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="46"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="22" t="s">
@@ -1244,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E19" s="13">
         <v>1</v>
@@ -1314,13 +1320,13 @@
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="12"/>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
       <c r="G23" s="15">
         <f>SUM(G18:G22)</f>
         <v>512</v>
@@ -1331,13 +1337,13 @@
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="12"/>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
       <c r="G24" s="23">
         <v>0.25</v>
       </c>
@@ -1345,13 +1351,13 @@
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="24"/>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
       <c r="G25" s="15">
         <f>G23*(1+G24)</f>
         <v>640</v>
@@ -1399,13 +1405,13 @@
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="29"/>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
       <c r="G28" s="28">
         <f>G27-G25</f>
         <v>860</v>
@@ -1446,10 +1452,10 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E30" s="14">
         <v>1</v>
@@ -1499,13 +1505,13 @@
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="12"/>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
       <c r="G34" s="15">
         <f>SUM(G29:G33)</f>
         <v>2</v>
@@ -1516,13 +1522,13 @@
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="12"/>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
       <c r="G35" s="23">
         <v>0.25</v>
       </c>
@@ -1530,13 +1536,13 @@
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="12"/>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
       <c r="G36" s="15">
         <f>G34*(1+G35)</f>
         <v>2.5</v>
@@ -1584,13 +1590,13 @@
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="29"/>
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
       <c r="G39" s="28">
         <f>G38-G36</f>
         <v>1497.5</v>
@@ -1610,38 +1616,38 @@
       <c r="H40" s="30"/>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="47"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="46"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="50"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="51"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="43"/>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="47"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="46"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="22" t="s">
@@ -1706,7 +1712,7 @@
       <c r="H46" s="36"/>
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="52" t="s">
+      <c r="A47" s="47" t="s">
         <v>29</v>
       </c>
       <c r="B47" s="26" t="s">
@@ -1733,7 +1739,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="52"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="26" t="s">
         <v>20</v>
       </c>
@@ -1759,13 +1765,13 @@
     </row>
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="35"/>
-      <c r="B49" s="53" t="s">
+      <c r="B49" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
       <c r="G49" s="33">
         <f>G45-SUM(G47:G48)</f>
         <v>500</v>
@@ -1786,22 +1792,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B39:F39"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A16:H16"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="A41:H41"/>
   </mergeCells>
   <conditionalFormatting sqref="G28 G39">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
